--- a/src/test/resources/testData/excel1.xlsx
+++ b/src/test/resources/testData/excel1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="7">
   <si>
     <t>username</t>
   </si>
